--- a/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_Custom.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_Custom.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFB8D8D-A04C-4675-A9CA-B6B6344CE1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D98618-17A8-457C-8E61-FD0C89F5E52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ExpectedCashFlow" sheetId="9" r:id="rId1"/>
-    <sheet name="MeasurementType" sheetId="10" r:id="rId2"/>
-    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId4"/>
+    <sheet name="MeasurementType" sheetId="10" r:id="rId1"/>
+    <sheet name="GLRule" sheetId="7" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,16 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
-  <si>
-    <t>PostingDate</t>
-  </si>
-  <si>
-    <t>EffectiveDate</t>
-  </si>
-  <si>
-    <t>InstrumentId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="36">
   <si>
     <t>System Generated</t>
   </si>
@@ -146,22 +136,7 @@
     <t>Def Rev</t>
   </si>
   <si>
-    <t>Attributeid</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>ExpectedCF</t>
-  </si>
-  <si>
-    <t>LN-1001</t>
-  </si>
-  <si>
     <t>CF</t>
-  </si>
-  <si>
-    <t>LN-1002</t>
   </si>
   <si>
     <t>MeasurementType</t>
@@ -177,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,17 +181,9 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,18 +194,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -255,16 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,610 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842CF9C8-9C33-44D4-B175-3D20CAE2D3CA}">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B2" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="7">
-        <v>45716</v>
-      </c>
-      <c r="G2">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B3" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="7">
-        <v>45747</v>
-      </c>
-      <c r="G3">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B4" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="7">
-        <v>45777</v>
-      </c>
-      <c r="G4">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B5" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="7">
-        <v>45808</v>
-      </c>
-      <c r="G5">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B6" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="7">
-        <v>45838</v>
-      </c>
-      <c r="G6">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B7" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="7">
-        <v>45869</v>
-      </c>
-      <c r="G7">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B8" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="7">
-        <v>45900</v>
-      </c>
-      <c r="G8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B9" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="7">
-        <v>45930</v>
-      </c>
-      <c r="G9">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B10" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7">
-        <v>45961</v>
-      </c>
-      <c r="G10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B11" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7">
-        <v>45991</v>
-      </c>
-      <c r="G11">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B12" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="7">
-        <v>46022</v>
-      </c>
-      <c r="G12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B13" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="7">
-        <v>46053</v>
-      </c>
-      <c r="G13">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B14" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="7">
-        <v>45716</v>
-      </c>
-      <c r="G14">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B15" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="7">
-        <v>45747</v>
-      </c>
-      <c r="G15">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B16" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="7">
-        <v>45777</v>
-      </c>
-      <c r="G16">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B17" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="7">
-        <v>45808</v>
-      </c>
-      <c r="G17">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B18" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="7">
-        <v>45838</v>
-      </c>
-      <c r="G18">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B19" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="7">
-        <v>45869</v>
-      </c>
-      <c r="G19">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B20" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="7">
-        <v>45900</v>
-      </c>
-      <c r="G20">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B21" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="7">
-        <v>45930</v>
-      </c>
-      <c r="G21">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B22" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="7">
-        <v>45961</v>
-      </c>
-      <c r="G22">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B23" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="7">
-        <v>45991</v>
-      </c>
-      <c r="G23">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B24" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="7">
-        <v>46022</v>
-      </c>
-      <c r="G24">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>45716</v>
-      </c>
-      <c r="B25" s="7">
-        <v>45716</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="7">
-        <v>46053</v>
-      </c>
-      <c r="G25">
-        <v>550</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B65EE7-6F2F-45F0-9B70-77809783DC5E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,23 +491,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>41</v>
+      <c r="A1" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -1184,27 +537,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1216,16 +569,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1237,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1258,16 +611,16 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,16 +632,16 @@
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1300,16 +653,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1321,16 +674,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1342,16 +695,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1363,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,16 +737,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,16 +758,16 @@
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1426,16 +779,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1447,16 +800,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1471,7 +824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:O25"/>
   <sheetViews>
@@ -1489,45 +842,45 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>-100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
@@ -1543,25 +896,25 @@
       </c>
       <c r="E5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>-100</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -1569,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
         <v>200</v>
@@ -1577,15 +930,15 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -1593,30 +946,30 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="O10" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
@@ -1624,16 +977,16 @@
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1">
         <v>200</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M11" s="1">
         <v>100</v>
@@ -1644,7 +997,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1">
         <v>-200</v>
@@ -1654,7 +1007,7 @@
         <v>Revenue</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J12" s="4">
         <f>O11</f>
@@ -1692,16 +1045,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>1200</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" ref="K14:K22" si="0">N13</f>
@@ -1717,7 +1070,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
         <v>-1200</v>
@@ -1727,7 +1080,7 @@
         <v>Def Revenue</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="0"/>
@@ -1761,16 +1114,16 @@
         <v>3</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="D17" s="1">
-        <v>100</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="0"/>
@@ -1787,7 +1140,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1">
         <v>-100</v>
@@ -1797,7 +1150,7 @@
         <v>Revenue</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="0"/>
@@ -1842,16 +1195,16 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K21" s="4">
         <f t="shared" si="0"/>
